--- a/Research/searched_address.xlsx
+++ b/Research/searched_address.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>검색 키워드</t>
   </si>
@@ -28,52 +28,64 @@
     <t>경도</t>
   </si>
   <si>
-    <t>주한중국대사관영사부</t>
-  </si>
-  <si>
-    <t>서울특별시 중구 남산동2가 50-7</t>
-  </si>
-  <si>
-    <t>954480.902823561</t>
-  </si>
-  <si>
-    <t>1950971.067490122</t>
-  </si>
-  <si>
     <t>주한미국대사관</t>
   </si>
   <si>
+    <t>주한일본대사관</t>
+  </si>
+  <si>
+    <t>주한중국대사관</t>
+  </si>
+  <si>
+    <t>주한베트남대사관</t>
+  </si>
+  <si>
+    <t>(주)동화면세점</t>
+  </si>
+  <si>
     <t>서울특별시 종로구 세종로 82-14</t>
   </si>
   <si>
+    <t>서울특별시 종로구 중학동 18-11</t>
+  </si>
+  <si>
+    <t>서울특별시 중구 명동2가 83-7</t>
+  </si>
+  <si>
+    <t>서울특별시 종로구 삼청동 28-37</t>
+  </si>
+  <si>
+    <t>서울특별시 종로구 세종로 211</t>
+  </si>
+  <si>
     <t>953890.361823846</t>
   </si>
   <si>
+    <t>954088.32972376</t>
+  </si>
+  <si>
+    <t>954336.94412361</t>
+  </si>
+  <si>
+    <t>954434.483923569</t>
+  </si>
+  <si>
+    <t>953738.82162393</t>
+  </si>
+  <si>
     <t>1952774.386392046</t>
   </si>
   <si>
-    <t>주한베트남대사관</t>
-  </si>
-  <si>
-    <t>서울특별시 종로구 삼청동 28-37</t>
-  </si>
-  <si>
-    <t>954434.483923569</t>
+    <t>1952990.684092287</t>
+  </si>
+  <si>
+    <t>1951651.449390856</t>
   </si>
   <si>
     <t>1954263.68909365</t>
   </si>
   <si>
-    <t>캐나다대사관</t>
-  </si>
-  <si>
-    <t>서울특별시 중구 정동 16-1</t>
-  </si>
-  <si>
-    <t>953272.177624188</t>
-  </si>
-  <si>
-    <t>1952078.132891301</t>
+    <t>1952373.727491626</t>
   </si>
 </sst>
 </file>
@@ -431,104 +443,129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:5">
+      <c r="B1" s="1">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1">
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="1">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
         <v>0</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="D10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>19</v>
+      <c r="E10" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Research/searched_address.xlsx
+++ b/Research/searched_address.xlsx
@@ -1,102 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youngju Hong\Documents\GitHub\seoulresearch_project\Research\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EFB7AB-DBC0-47E5-BCE4-5919150F8CBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="3165" yWindow="3435" windowWidth="16200" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>검색 키워드</t>
+    <t>경희대학교서울캠퍼스중앙도서관</t>
   </si>
   <si>
-    <t>주소</t>
+    <t>한양대학교서울캠퍼스</t>
   </si>
   <si>
-    <t>위도</t>
+    <t>서울특별시 동대문구 회기동 1-5</t>
   </si>
   <si>
-    <t>경도</t>
-  </si>
-  <si>
-    <t>주한미국대사관</t>
-  </si>
-  <si>
-    <t>주한일본대사관</t>
-  </si>
-  <si>
-    <t>주한중국대사관</t>
-  </si>
-  <si>
-    <t>주한베트남대사관</t>
-  </si>
-  <si>
-    <t>(주)동화면세점</t>
-  </si>
-  <si>
-    <t>서울특별시 종로구 세종로 82-14</t>
-  </si>
-  <si>
-    <t>서울특별시 종로구 중학동 18-11</t>
-  </si>
-  <si>
-    <t>서울특별시 중구 명동2가 83-7</t>
-  </si>
-  <si>
-    <t>서울특별시 종로구 삼청동 28-37</t>
-  </si>
-  <si>
-    <t>서울특별시 종로구 세종로 211</t>
-  </si>
-  <si>
-    <t>953890.361823846</t>
-  </si>
-  <si>
-    <t>954088.32972376</t>
-  </si>
-  <si>
-    <t>954336.94412361</t>
-  </si>
-  <si>
-    <t>954434.483923569</t>
-  </si>
-  <si>
-    <t>953738.82162393</t>
-  </si>
-  <si>
-    <t>1952774.386392046</t>
-  </si>
-  <si>
-    <t>1952990.684092287</t>
-  </si>
-  <si>
-    <t>1951651.449390856</t>
-  </si>
-  <si>
-    <t>1954263.68909365</t>
-  </si>
-  <si>
-    <t>1952373.727491626</t>
+    <t>서울특별시 성동구 사근동 110 학</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -104,8 +50,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -144,22 +97,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -201,7 +163,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,9 +195,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -267,6 +247,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -442,14 +440,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="31.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -463,112 +469,42 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>960570.41332040005</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1955355.5470948301</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
+      <c r="D3" s="2">
+        <v>959961.94852072501</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1951009.3183901799</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>